--- a/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/instructions_evaluation.xlsx
+++ b/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/instructions_evaluation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="140" windowWidth="25360" windowHeight="15820"/>
+    <workbookView xWindow="375" yWindow="135" windowWidth="25365" windowHeight="15825"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>right_text</t>
   </si>
   <si>
-    <t>Please choose which of the two images you prefer:</t>
+    <t>Duid aan welke van de twee afbeeldingen jij verkiest</t>
   </si>
   <si>
-    <t>The image on the left:</t>
+    <t xml:space="preserve">De afbeelding links: </t>
   </si>
   <si>
-    <t>The image on the right:</t>
+    <t>de afbeelding rechts:</t>
   </si>
 </sst>
 </file>
@@ -570,24 +570,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,17 +902,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25" customHeight="1">
+    <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
